--- a/R/analysis/data/Pt_37_Experimental.xlsx
+++ b/R/analysis/data/Pt_37_Experimental.xlsx
@@ -524,7 +524,7 @@
         <v>0.71</v>
       </c>
       <c r="N2" t="n">
-        <v>-2.5</v>
+        <v>2.5</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -578,7 +578,7 @@
         <v>1.79</v>
       </c>
       <c r="L3" t="n">
-        <v>-4.2</v>
+        <v>4.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.15</v>
@@ -635,16 +635,16 @@
         <v>1.61</v>
       </c>
       <c r="K4" t="n">
-        <v>5.56</v>
+        <v>0.37</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.27</v>
+        <v>3.94</v>
       </c>
       <c r="M4" t="n">
-        <v>3.66</v>
+        <v>0.12</v>
       </c>
       <c r="N4" t="n">
-        <v>0.08</v>
+        <v>2.58</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0.82</v>
       </c>
       <c r="N5" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>0.79</v>
       </c>
       <c r="L6" t="n">
-        <v>-3.43</v>
+        <v>3.43</v>
       </c>
       <c r="M6"/>
       <c r="N6" t="n">
@@ -811,16 +811,16 @@
         <v>3.29</v>
       </c>
       <c r="K7" t="n">
-        <v>5.25</v>
+        <v>0.4</v>
       </c>
       <c r="L7" t="n">
-        <v>0.28</v>
+        <v>3.71</v>
       </c>
       <c r="M7" t="n">
-        <v>4.24</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0.58</v>
       </c>
       <c r="N8" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -932,7 +932,7 @@
         <v>0.92</v>
       </c>
       <c r="L9" t="n">
-        <v>-3.38</v>
+        <v>3.38</v>
       </c>
       <c r="M9"/>
       <c r="N9" t="e">
@@ -985,14 +985,14 @@
         <v>1.34</v>
       </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>0.62</v>
       </c>
       <c r="L10" t="n">
-        <v>0.44</v>
+        <v>3.82</v>
       </c>
       <c r="M10"/>
       <c r="N10" t="n">
-        <v>-3.5</v>
+        <v>3.5</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
       </c>
       <c r="K12"/>
       <c r="L12" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>1.53</v>
@@ -1153,10 +1153,10 @@
         <v>1.39</v>
       </c>
       <c r="K13" t="n">
-        <v>5.48</v>
+        <v>1.24</v>
       </c>
       <c r="L13" t="n">
-        <v>0.88</v>
+        <v>3.88</v>
       </c>
       <c r="M13"/>
       <c r="N13" t="n">
@@ -1270,7 +1270,7 @@
         <v>1.41</v>
       </c>
       <c r="L15" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M15" t="n">
         <v>0.82</v>
@@ -1325,10 +1325,10 @@
         <v>2.11</v>
       </c>
       <c r="K16" t="n">
-        <v>6.45</v>
+        <v>0.79</v>
       </c>
       <c r="L16" t="n">
-        <v>0.56</v>
+        <v>4.56</v>
       </c>
       <c r="M16"/>
       <c r="N16" t="n">
@@ -1438,13 +1438,13 @@
       </c>
       <c r="K18"/>
       <c r="L18" t="n">
-        <v>-5</v>
+        <v>5</v>
       </c>
       <c r="M18" t="n">
-        <v>2.15</v>
+        <v>1</v>
       </c>
       <c r="N18" t="n">
-        <v>2.43</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
         <v>0.35</v>
@@ -1493,14 +1493,14 @@
         <v>1.92</v>
       </c>
       <c r="K19" t="n">
-        <v>7.16</v>
+        <v>0.08</v>
       </c>
       <c r="L19" t="n">
-        <v>0.06</v>
+        <v>5.06</v>
       </c>
       <c r="M19"/>
       <c r="N19" t="n">
-        <v>2.43</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
         <v>0.08</v>
@@ -1610,7 +1610,7 @@
         <v>0.58</v>
       </c>
       <c r="L21" t="n">
-        <v>-2.67</v>
+        <v>2.67</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
@@ -1665,10 +1665,10 @@
         <v>1.62</v>
       </c>
       <c r="K22" t="n">
-        <v>5.86</v>
+        <v>2.09</v>
       </c>
       <c r="L22" t="n">
-        <v>1.48</v>
+        <v>4.14</v>
       </c>
       <c r="M22"/>
       <c r="N22" t="n">
@@ -1782,7 +1782,7 @@
         <v>0.71</v>
       </c>
       <c r="L24" t="n">
-        <v>-3</v>
+        <v>3</v>
       </c>
       <c r="M24" t="n">
         <v>0.58</v>
@@ -1837,10 +1837,10 @@
         <v>1.21</v>
       </c>
       <c r="K25" t="n">
-        <v>5.39</v>
+        <v>1.15</v>
       </c>
       <c r="L25" t="n">
-        <v>0.81</v>
+        <v>3.81</v>
       </c>
       <c r="M25"/>
       <c r="N25" t="n">
@@ -1900,7 +1900,7 @@
       </c>
       <c r="M26"/>
       <c r="N26" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -1954,7 +1954,7 @@
         <v>1.73</v>
       </c>
       <c r="L27" t="n">
-        <v>-4</v>
+        <v>4</v>
       </c>
       <c r="M27" t="n">
         <v>1.41</v>
@@ -2011,16 +2011,16 @@
         <v>1.41</v>
       </c>
       <c r="K28" t="n">
-        <v>6.06</v>
+        <v>0.4</v>
       </c>
       <c r="L28" t="n">
-        <v>0.29</v>
+        <v>4.28</v>
       </c>
       <c r="M28" t="n">
-        <v>3.54</v>
+        <v>0.71</v>
       </c>
       <c r="N28" t="n">
-        <v>0.5</v>
+        <v>2.5</v>
       </c>
       <c r="O28" t="n">
         <v>0.08</v>
